--- a/GS Hardware/REXlab Inventory.xlsx
+++ b/GS Hardware/REXlab Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\School\2023-2024\Fall Semester\Spacecraft Design-Build-Fly\comms-repo\Ops-Groundstation\GS Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E168CC9F-369C-46C1-9FBA-A1A5A5B86C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3E6329-540F-44BB-B13F-D33EC6578B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Item Name</t>
   </si>
@@ -111,15 +111,9 @@
     <t>Various assembled system</t>
   </si>
   <si>
-    <t xml:space="preserve">BNC Inline Attenuator Set </t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Variable Attenuator</t>
-  </si>
-  <si>
     <t>https://www.ssb.de/en/switches/system-switches/as-3000-a-system-switch</t>
   </si>
   <si>
@@ -199,13 +193,67 @@
   </si>
   <si>
     <t>https://www.meanwell.com/webapp/product/search.aspx?prod=ENP-360</t>
+  </si>
+  <si>
+    <t>70cm LNA</t>
+  </si>
+  <si>
+    <t>33cm LNA</t>
+  </si>
+  <si>
+    <t>RTL-SDR based usb sdr</t>
+  </si>
+  <si>
+    <t>https://www.minicircuits.com/WebStore/dashboard.html?model=HAT-10A%2B</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Mini-Circuits/BW-S20-2W263A+?qs=Imq1NPwxi76bOrboaz%252BfWA%3D%3D&amp;gclid=Cj0KCQjwy4KqBhD0ARIsAEbCt6jUd-gO-AsQB75qE-9DmiMzqkqc_vmerQWQCrwyQOwbPURDKUWjlAUaAtfiEALw_wcB</t>
+  </si>
+  <si>
+    <t>MiniCircuits SMA 20dB Inline Attenuator</t>
+  </si>
+  <si>
+    <t>MiniCircuits BNC 10dB Inline Attenuator</t>
+  </si>
+  <si>
+    <t>https://www.jfwindustries.com/product/50dr-055-dual-rotary-attenuator/</t>
+  </si>
+  <si>
+    <t>JFW Variable Attenuator</t>
+  </si>
+  <si>
+    <t>30dB max, 1dB step, SMA</t>
+  </si>
+  <si>
+    <t>SMA male-male adapter</t>
+  </si>
+  <si>
+    <t>SMA female-female adapter</t>
+  </si>
+  <si>
+    <t>SMA 50Ohm Dummy Load</t>
+  </si>
+  <si>
+    <t>SMA female through-hole mount</t>
+  </si>
+  <si>
+    <t>BNC female-SMA male adapter</t>
+  </si>
+  <si>
+    <t>BNC male-SMA male adapter</t>
+  </si>
+  <si>
+    <t>BNC male-SMA female adapter</t>
+  </si>
+  <si>
+    <t>Type N male-SMA male adapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +280,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,13 +328,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -563,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,8 +745,11 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -714,149 +774,137 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>54</v>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -864,8 +912,104 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +1017,12 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{96160D87-E7FA-4BFA-B61C-0A15CC5EBB83}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{ABFC7FE1-9DCB-4CDD-8090-99979BD4AAA7}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{7508C908-900A-45D6-A9C2-CDC556238230}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{A8270975-23AD-4159-B3EC-03DE40555EEB}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{AE39335F-7F6C-4E84-B89F-80EBDA092E48}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{A8270975-23AD-4159-B3EC-03DE40555EEB}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{AE39335F-7F6C-4E84-B89F-80EBDA092E48}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{A1A38FBB-495E-4ECC-938E-A710CDD7329F}"/>
+    <hyperlink ref="D32" r:id="rId7" xr:uid="{CB96C2B7-57EE-4815-A4D7-194C44473913}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>